--- a/Actitime/data/book1.xlsx
+++ b/Actitime/data/book1.xlsx
@@ -16,15 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>slno</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>modulename</t>
   </si>
   <si>
     <t>projectname</t>
+  </si>
+  <si>
+    <t>customername</t>
+  </si>
+  <si>
+    <t>customer description</t>
+  </si>
+  <si>
+    <t>HDFC_001</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Banking Project</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -356,19 +371,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,6 +394,23 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Actitime/data/book1.xlsx
+++ b/Actitime/data/book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15750" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="createcustomermodule" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>modulename</t>
-  </si>
-  <si>
-    <t>projectname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>customername</t>
   </si>
@@ -40,6 +35,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>TestCase_id</t>
+  </si>
+  <si>
+    <t>tc_01</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
   </si>
 </sst>
 </file>
@@ -374,43 +378,46 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Actitime/data/book1.xlsx
+++ b/Actitime/data/book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15750" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="17205" windowHeight="1755"/>
   </bookViews>
   <sheets>
     <sheet name="createcustomermodule" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Banking Project</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>TestCase_id</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -391,10 +391,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
